--- a/biology/Botanique/Parade_du_Tournoi_des_Roses/Parade_du_Tournoi_des_Roses.xlsx
+++ b/biology/Botanique/Parade_du_Tournoi_des_Roses/Parade_du_Tournoi_des_Roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La parade du Tournoi des Roses (Rose Parade) est un tournoi de chars fleuris organisés annuellement à Pasadena (Californie).
 Enraciné dans la tradition, le tournoi du défilé de roses s'est déroulé la première fois le 1er janvier 1890, à Pasadena, ville à 13 km au nord-est du centre-ville de Los Angeles. Un peu plus d'un million de spectateurs y assiste sur l'itinéraire de défilé. L'événement est retransmis sur plusieurs chaînes de télévision et compte plusieurs millions de spectateurs. 
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir du 1er janvier 1923, le tournoi est traditionnellement suivi d'un autre événement, une rencontre de football américain universitaire, qui passera dans le langage commun, comme un Bowl. À l'origine le mot Bowl (cuvette en anglais) est une référence à la forme du stade construit à Pasadena, le Rose Bowl (stade). Par la suite, il sera surnommé « la cuvette de Rose » en référence au nom de la parade du Tournoi des Roses. La rencontre ayant lieu dans le stade chaque année prend alors le nom de Rose Bowl Game.
 </t>
@@ -546,7 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Années 1890
+          <t>Années 1890</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1890 : Dr. Francis F. Rowland
 1891 : Aucun
 1892 : Dr. Francis F. Rowland
@@ -555,14 +575,86 @@
 1895 : Dr. Henry H. Sherk
 1896 et 1897 : Edwin Stearns
 1898 et 1899 : Martin H. Weight
-Années 1900
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 1900</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1900 et 1901 : Charles Daggett
 1902 et 1903 : C. C. Reynolds
 1904 et 1905 : Francis F. Rowland
 1906 : John B. Miller
 1907 et 1908 : Dr. Ralph Skillen
 1909 : Walter S. Wright
-Années 1910
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 1910</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1910 : Dr. Francis F. Rowland et Prof. Charles F. Holder
 1911 : Dr. Ralph Skillen
 1912 : E. H. Groenendyke
@@ -573,7 +665,43 @@
 1917 : Dr. C. D. Lockwood
 1918 : Dr. Z. T. Malaby
 1919 : Frank Hunter
-Années 1920
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Années 1920</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1920 : Frank G. Hogan
 1921 : W. A. Boucher
 1922 : Harold Landreth
@@ -584,7 +712,43 @@
 1927 : Dr. C.D. Lockwood
 1928 : John McDonald
 1929 : Marco Hellman
-Années 1930
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1930 : James Rolph
 1931 : Gen. Charles S. Farnsworth
 1932 : William May Garland
@@ -595,7 +759,43 @@
 1937 : Eugene Biscailuz
 1938 : Leo Carrillo
 1939 : Shirley Temple
-Années 1940
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1940 : Edgar Bergen et Charlie McCarthy
 1941 : E. O. Nay
 1942 : Kay Kyser
@@ -606,7 +806,43 @@
 1947 : Bob Hope
 1948 : Gen. Omar Bradley
 1949 : Perry Brown
-Années 1950
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1950 : Paul G. Hoffman
 1951 : Corporal Robert S. Gray (For General Dwight D. Eisenhower)
 1952 : Medal of Honor Men: Major Carl Sitter, Captain Lewis Millett, Lieutenant Stanley Adams, Lieutenant Thomas Hudner, Captain Raymond Harvey, Sergeant Ernest Kouma et Sergeant Joseph C. Rodriguez
@@ -617,7 +853,43 @@
 1957 : Eddie Rickenbacker
 1958 : Robert Gordon Sproul
 1959 : E. L. "Bob" Bartlett
-Années 1960
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1960 : Richard M. Nixon
 1961 : William F. Quinn
 1962 : Albert D. Rosellini
@@ -628,7 +900,43 @@
 1967 : Thanat Khoman
 1968 : Senator Everett Dirksen
 1969 : Bob Hope
-Années 1970
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Années 1970</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1970 : les astronautes d'Apollo 12 Alan L. Bean, Charles Conrad et Richard F. Gordon, Jr.
 1971 : Révérend Billy Graham
 1972 : Lawrence Welk
@@ -639,18 +947,90 @@
 1977 : Roy Rogers et Dale Evans
 1978 : l'ancien président Gerald Ford
 1979 : Lathrop K. Leishman
-Années 1980
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1980 : Frank Sinatra
 1981 : Lorne Greene
 1982 : James Stewart
 1983 : Merlin Olsen
 1984 : Danny Kaye
 1985 : Lee A. Iacocca
-1986 : Erma Bombeck[1]
+1986 : Erma Bombeck
 1987 : Pelé
 1988 : Gregory Peck
 1989 : Shirley Temple Black
-Années 1990
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1990 : Sénateur John Glenn
 1991 : Bob Newhart
 1992 : The Most Excellent Cristóbal Colón de Carvajal y Gorosábel, 18e Duc de Veragua (descendant de Christophe Colombs) et Congressman Ben Nighthorse Campbell
@@ -661,7 +1041,43 @@
 1997 : Carl Lewis et Shannon Miller
 1998 : Carol Burnett
 1999 : Buzz Aldrin, Shirley Temple Black, Jackie Robinson (posthume) et David L. Wolper
-Années 2000
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2000 : Roy E. Disney
 2001 : Tom Brokaw
 2002 : Regis Philbin
@@ -672,19 +1088,91 @@
 2007 : George Lucas
 2008 : Emeril Lagasse
 2009 : Cloris Leachman
-Années 2010
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2010 : Chesley B. "Sully" Sullenberger III
-2011 : Paula Deen[2]
-2012 : J. R. Martinez[3]
-2013 : Jane Goodall[4]
-2014 : Vin Scully[5]
-2015 : Louis Zamperini[6] (posthume)
+2011 : Paula Deen
+2012 : J. R. Martinez
+2013 : Jane Goodall
+2014 : Vin Scully
+2015 : Louis Zamperini (posthume)
 2016 : Ken Burns
-2017 : Greg Louganis, Janet Evans and Allyson Felix[7]
-2018 – Gary Sinise[8]
-2019 – Chaka Khan[9]
-Années 2020
-2020 : Lauren Hernandez, Rita Moreno et Gina Torres[10] ;
+2017 : Greg Louganis, Janet Evans and Allyson Felix
+2018 – Gary Sinise
+2019 – Chaka Khan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parade_du_Tournoi_des_Roses</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des grands maréchaux</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2020 : Lauren Hernandez, Rita Moreno et Gina Torres ;
 2021 : Pas de Parade à la suite de la pandémie de COVID-19 ;
 2022 : LeVar Burton.
 </t>
